--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_24_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_24_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-55253.10861767647</v>
+        <v>-63558.00382533097</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11715962.26448287</v>
+        <v>11715962.26448288</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3154513.636219956</v>
+        <v>3154513.636219955</v>
       </c>
     </row>
     <row r="11">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4902432507819094</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>208.3701627170964</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H12" t="n">
-        <v>31.62322353306971</v>
+        <v>31.6232235330688</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>149.6159263163703</v>
       </c>
       <c r="Y13" t="n">
-        <v>37.69870921092682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>281.6008363880921</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1663,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>37.82051007337866</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1703,7 +1703,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H15" t="n">
-        <v>31.62322353306968</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>44.17482029426311</v>
+        <v>44.17482029426228</v>
       </c>
       <c r="T15" t="n">
         <v>124.8306395731037</v>
@@ -1773,16 +1773,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>110.1207081981825</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>195.7883996540917</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>204.8426041147488</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
@@ -1906,13 +1906,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>330.7211180815046</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H18" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.17482029426311</v>
+        <v>44.17482029426228</v>
       </c>
       <c r="T18" t="n">
         <v>124.8306395731037</v>
@@ -2004,22 +2004,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>37.69870921092682</v>
+        <v>29.91896038064772</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>370.8532923794004</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>230.1295436120415</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>120.0908620689655</v>
+        <v>120.0908620689653</v>
       </c>
       <c r="C21" t="n">
         <v>105.3918965517241</v>
@@ -2177,7 +2177,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H21" t="n">
-        <v>31.62322353306969</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>131.8842297274031</v>
+        <v>163.7152510849623</v>
       </c>
     </row>
     <row r="23">
@@ -2323,19 +2323,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>221.2992638288012</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>163.4303819051993</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2402,7 +2402,7 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D24" t="n">
-        <v>94.13938596491226</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E24" t="n">
         <v>93.17921052631581</v>
@@ -2414,7 +2414,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H24" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306947</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2481,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>56.17290916498833</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>12.8904609824138</v>
       </c>
     </row>
     <row r="26">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>120.8856136208037</v>
       </c>
       <c r="C26" t="n">
-        <v>13.13578160607853</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H27" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306947</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>44.17482029426318</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T27" t="n">
         <v>124.8306395731037</v>
@@ -2715,22 +2715,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>34.51516921304759</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>29.91896038064806</v>
       </c>
     </row>
     <row r="29">
@@ -2797,16 +2797,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>156.7012890994291</v>
+        <v>384.9383575052598</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -2888,7 +2888,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H30" t="n">
-        <v>31.62322353306968</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2952,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>133.2086277739022</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>163.0937685836068</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>85.33404140999048</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3031,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>181.9350240293736</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>101.0701806573376</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>167.8191401812166</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>34.51516921304759</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>424.805704836644</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>361.464905015728</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>134.8967801895894</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>34.5151692130476</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>304.6684228599267</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>414.5540246779511</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>12.99065215615417</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>109.800451929241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>215.9854048686357</v>
       </c>
       <c r="X41" t="n">
-        <v>361.4649050157285</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>55.49107235181526</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>40.81179447522067</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>135.9033150470567</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>158.6851702988639</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>67.18009772487038</v>
       </c>
       <c r="C46" t="n">
-        <v>64.65234145753891</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1578.568163960874</v>
+        <v>1316.393772536738</v>
       </c>
       <c r="C11" t="n">
-        <v>1578.568163960874</v>
+        <v>1316.393772536738</v>
       </c>
       <c r="D11" t="n">
-        <v>1578.072968758064</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="E11" t="n">
-        <v>1144.298223916359</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F11" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G11" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="V11" t="n">
-        <v>1997.710627381563</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W11" t="n">
-        <v>1997.710627381563</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="X11" t="n">
-        <v>1578.568163960874</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="Y11" t="n">
-        <v>1578.568163960874</v>
+        <v>1316.393772536738</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>542.5713050663908</v>
+        <v>542.5713050663899</v>
       </c>
       <c r="C12" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030321</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495854</v>
       </c>
       <c r="E12" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765391</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927007</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235755</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J12" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P12" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q12" t="n">
-        <v>1614.947661807679</v>
+        <v>1614.947661807678</v>
       </c>
       <c r="R12" t="n">
-        <v>1676.651116233592</v>
+        <v>1676.651116233591</v>
       </c>
       <c r="S12" t="n">
-        <v>1632.030085633326</v>
+        <v>1632.030085633325</v>
       </c>
       <c r="T12" t="n">
-        <v>1505.938530508979</v>
+        <v>1505.938530508978</v>
       </c>
       <c r="U12" t="n">
-        <v>1329.66869333286</v>
+        <v>1329.668693332859</v>
       </c>
       <c r="V12" t="n">
-        <v>1130.551175394859</v>
+        <v>1130.551175394858</v>
       </c>
       <c r="W12" t="n">
-        <v>945.2284211280532</v>
+        <v>945.2284211280523</v>
       </c>
       <c r="X12" t="n">
-        <v>790.3609853669332</v>
+        <v>790.3609853669323</v>
       </c>
       <c r="Y12" t="n">
-        <v>663.8752061461539</v>
+        <v>663.875206146153</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1517.87440598441</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="C13" t="n">
-        <v>1517.87440598441</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="D13" t="n">
-        <v>1517.87440598441</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="E13" t="n">
-        <v>1517.87440598441</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="F13" t="n">
-        <v>1517.87440598441</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G13" t="n">
-        <v>1517.87440598441</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H13" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I13" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J13" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K13" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L13" t="n">
-        <v>1797.450971872449</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M13" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755233</v>
       </c>
       <c r="N13" t="n">
-        <v>2055.554276014868</v>
+        <v>584.8864215794127</v>
       </c>
       <c r="O13" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271744</v>
       </c>
       <c r="P13" t="n">
-        <v>2274.089213540314</v>
+        <v>803.4213591048579</v>
       </c>
       <c r="Q13" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355135</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122809</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122809</v>
       </c>
       <c r="T13" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122809</v>
       </c>
       <c r="U13" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122809</v>
       </c>
       <c r="V13" t="n">
-        <v>2073.372069318168</v>
+        <v>602.7042148827113</v>
       </c>
       <c r="W13" t="n">
-        <v>1801.345664904459</v>
+        <v>330.6778104690028</v>
       </c>
       <c r="X13" t="n">
-        <v>1555.953910237872</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="Y13" t="n">
-        <v>1517.87440598441</v>
+        <v>179.5506121696388</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>765.4265856715607</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C14" t="n">
-        <v>765.4265856715607</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D14" t="n">
-        <v>765.4265856715607</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E14" t="n">
-        <v>331.6518408298559</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F14" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I14" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867029</v>
+        <v>805.4408022867017</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>2101.25688596925</v>
       </c>
       <c r="V14" t="n">
-        <v>1997.710627381563</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="W14" t="n">
-        <v>1592.855172792597</v>
+        <v>1700.437400475421</v>
       </c>
       <c r="X14" t="n">
-        <v>1173.712709371907</v>
+        <v>1281.294937054732</v>
       </c>
       <c r="Y14" t="n">
-        <v>765.4265856715607</v>
+        <v>873.0088133543854</v>
       </c>
     </row>
     <row r="15">
@@ -5348,40 +5348,40 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235846</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J15" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M15" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O15" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P15" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q15" t="n">
-        <v>1614.947661807679</v>
+        <v>1614.947661807678</v>
       </c>
       <c r="R15" t="n">
-        <v>1676.651116233592</v>
+        <v>1676.651116233591</v>
       </c>
       <c r="S15" t="n">
         <v>1632.030085633326</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>213.0845443474321</v>
+        <v>691.8936627556226</v>
       </c>
       <c r="C16" t="n">
-        <v>213.0845443474321</v>
+        <v>691.8936627556226</v>
       </c>
       <c r="D16" t="n">
-        <v>47.20655154895474</v>
+        <v>526.0156699571453</v>
       </c>
       <c r="E16" t="n">
-        <v>47.20655154895474</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F16" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J16" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K16" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>326.783117436994</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M16" t="n">
-        <v>457.3875097755234</v>
+        <v>457.3875097755233</v>
       </c>
       <c r="N16" t="n">
-        <v>584.886421579413</v>
+        <v>584.8864215794127</v>
       </c>
       <c r="O16" t="n">
-        <v>702.6523029271748</v>
+        <v>702.6523029271744</v>
       </c>
       <c r="P16" t="n">
-        <v>803.4213591048583</v>
+        <v>803.4213591048579</v>
       </c>
       <c r="Q16" t="n">
-        <v>873.1886303355139</v>
+        <v>873.1886303355135</v>
       </c>
       <c r="R16" t="n">
-        <v>889.6597230122813</v>
+        <v>889.6597230122809</v>
       </c>
       <c r="S16" t="n">
-        <v>889.6597230122813</v>
+        <v>889.6597230122809</v>
       </c>
       <c r="T16" t="n">
-        <v>778.4266844282586</v>
+        <v>889.6597230122809</v>
       </c>
       <c r="U16" t="n">
-        <v>500.0400524770016</v>
+        <v>889.6597230122809</v>
       </c>
       <c r="V16" t="n">
-        <v>213.0845443474321</v>
+        <v>691.8936627556226</v>
       </c>
       <c r="W16" t="n">
-        <v>213.0845443474321</v>
+        <v>691.8936627556226</v>
       </c>
       <c r="X16" t="n">
-        <v>213.0845443474321</v>
+        <v>691.8936627556226</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.0845443474321</v>
+        <v>691.8936627556226</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.20655154895473</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="C17" t="n">
-        <v>47.20655154895473</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="D17" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E17" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L17" t="n">
         <v>805.4408022867023</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N17" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P17" t="n">
         <v>2043.069798152528</v>
@@ -5539,10 +5539,10 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S17" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T17" t="n">
         <v>2108.089956131646</v>
@@ -5554,13 +5554,13 @@
         <v>1486.402314586986</v>
       </c>
       <c r="W17" t="n">
-        <v>1081.54685999802</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="X17" t="n">
-        <v>662.4043965773304</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="Y17" t="n">
-        <v>254.1182728769838</v>
+        <v>1152.340579151123</v>
       </c>
     </row>
     <row r="18">
@@ -5588,37 +5588,37 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J18" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M18" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P18" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q18" t="n">
-        <v>1614.947661807679</v>
+        <v>1614.947661807678</v>
       </c>
       <c r="R18" t="n">
-        <v>1676.651116233592</v>
+        <v>1676.651116233591</v>
       </c>
       <c r="S18" t="n">
         <v>1632.030085633326</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1517.87440598441</v>
+        <v>859.4385509106165</v>
       </c>
       <c r="C19" t="n">
-        <v>1517.87440598441</v>
+        <v>686.8768393938415</v>
       </c>
       <c r="D19" t="n">
-        <v>1517.87440598441</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="E19" t="n">
-        <v>1517.87440598441</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F19" t="n">
-        <v>1517.87440598441</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G19" t="n">
-        <v>1517.87440598441</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H19" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I19" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J19" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K19" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>1797.450971872449</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M19" t="n">
-        <v>1928.055364210978</v>
+        <v>457.3875097755233</v>
       </c>
       <c r="N19" t="n">
-        <v>2055.554276014868</v>
+        <v>584.8864215794127</v>
       </c>
       <c r="O19" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271744</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540313</v>
+        <v>803.4213591048579</v>
       </c>
       <c r="Q19" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355135</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122809</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122809</v>
       </c>
       <c r="T19" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122809</v>
       </c>
       <c r="U19" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122809</v>
       </c>
       <c r="V19" t="n">
-        <v>2073.372069318167</v>
+        <v>889.6597230122809</v>
       </c>
       <c r="W19" t="n">
-        <v>1801.345664904459</v>
+        <v>889.6597230122809</v>
       </c>
       <c r="X19" t="n">
-        <v>1555.953910237871</v>
+        <v>889.6597230122809</v>
       </c>
       <c r="Y19" t="n">
-        <v>1517.87440598441</v>
+        <v>859.4385509106165</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>717.8031088221391</v>
+        <v>1529.172552373861</v>
       </c>
       <c r="C20" t="n">
-        <v>279.6606360055624</v>
+        <v>1091.030079557285</v>
       </c>
       <c r="D20" t="n">
-        <v>279.6606360055624</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E20" t="n">
-        <v>279.6606360055624</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F20" t="n">
-        <v>279.6606360055624</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K20" t="n">
         <v>512.3249274228014</v>
@@ -5776,28 +5776,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S20" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T20" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U20" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="V20" t="n">
-        <v>1957.24425759636</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="W20" t="n">
-        <v>1552.388803007393</v>
+        <v>1955.472122858769</v>
       </c>
       <c r="X20" t="n">
-        <v>1552.388803007393</v>
+        <v>1955.472122858769</v>
       </c>
       <c r="Y20" t="n">
-        <v>1144.102679307047</v>
+        <v>1955.472122858769</v>
       </c>
     </row>
     <row r="21">
@@ -5822,10 +5822,10 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235846</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I21" t="n">
         <v>81.42328772043084</v>
@@ -5834,22 +5834,22 @@
         <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M21" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P21" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q21" t="n">
         <v>1614.947661807679</v>
@@ -5870,13 +5870,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W21" t="n">
-        <v>945.2284211280532</v>
+        <v>945.228421128053</v>
       </c>
       <c r="X21" t="n">
-        <v>790.3609853669332</v>
+        <v>790.3609853669329</v>
       </c>
       <c r="Y21" t="n">
-        <v>663.8752061461539</v>
+        <v>663.8752061461537</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.20655154895473</v>
+        <v>724.29078252242</v>
       </c>
       <c r="C22" t="n">
-        <v>47.20655154895473</v>
+        <v>724.29078252242</v>
       </c>
       <c r="D22" t="n">
-        <v>47.20655154895473</v>
+        <v>558.4127897239428</v>
       </c>
       <c r="E22" t="n">
-        <v>47.20655154895473</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F22" t="n">
-        <v>47.20655154895473</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K22" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>326.783117436994</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M22" t="n">
-        <v>457.3875097755234</v>
+        <v>457.3875097755233</v>
       </c>
       <c r="N22" t="n">
-        <v>584.886421579413</v>
+        <v>584.8864215794127</v>
       </c>
       <c r="O22" t="n">
-        <v>702.6523029271748</v>
+        <v>702.6523029271746</v>
       </c>
       <c r="P22" t="n">
-        <v>803.4213591048583</v>
+        <v>803.421359104858</v>
       </c>
       <c r="Q22" t="n">
-        <v>873.1886303355139</v>
+        <v>873.1886303355136</v>
       </c>
       <c r="R22" t="n">
-        <v>889.6597230122813</v>
+        <v>889.659723012281</v>
       </c>
       <c r="S22" t="n">
-        <v>889.6597230122813</v>
+        <v>889.659723012281</v>
       </c>
       <c r="T22" t="n">
-        <v>889.6597230122813</v>
+        <v>889.659723012281</v>
       </c>
       <c r="U22" t="n">
-        <v>889.6597230122813</v>
+        <v>889.659723012281</v>
       </c>
       <c r="V22" t="n">
-        <v>889.6597230122813</v>
+        <v>889.659723012281</v>
       </c>
       <c r="W22" t="n">
-        <v>617.6333185985729</v>
+        <v>889.659723012281</v>
       </c>
       <c r="X22" t="n">
-        <v>372.2415639319854</v>
+        <v>889.659723012281</v>
       </c>
       <c r="Y22" t="n">
-        <v>239.0251702679419</v>
+        <v>724.29078252242</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1578.568163960874</v>
+        <v>1911.575083962187</v>
       </c>
       <c r="C23" t="n">
-        <v>1140.425691144297</v>
+        <v>1473.43261114561</v>
       </c>
       <c r="D23" t="n">
-        <v>704.5159063187416</v>
+        <v>1473.43261114561</v>
       </c>
       <c r="E23" t="n">
-        <v>270.7411614770368</v>
+        <v>1039.657866303905</v>
       </c>
       <c r="F23" t="n">
-        <v>270.7411614770368</v>
+        <v>611.7904367131132</v>
       </c>
       <c r="G23" t="n">
+        <v>212.2877453925904</v>
+      </c>
+      <c r="H23" t="n">
         <v>47.20655154895473</v>
       </c>
-      <c r="H23" t="n">
-        <v>47.20655154895474</v>
-      </c>
       <c r="I23" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867019</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M23" t="n">
         <v>1131.588690455489</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V23" t="n">
-        <v>1997.710627381563</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W23" t="n">
-        <v>1997.710627381563</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X23" t="n">
-        <v>1578.568163960874</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="Y23" t="n">
-        <v>1578.568163960874</v>
+        <v>1911.575083962187</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>542.5713050663908</v>
+        <v>542.5713050663906</v>
       </c>
       <c r="C24" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030328</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495861</v>
       </c>
       <c r="E24" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765398</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927014</v>
       </c>
       <c r="G24" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235823</v>
       </c>
       <c r="H24" t="n">
         <v>47.20655154895473</v>
@@ -6071,22 +6071,22 @@
         <v>175.316627066898</v>
       </c>
       <c r="K24" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M24" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N24" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O24" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P24" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q24" t="n">
         <v>1614.947661807679</v>
@@ -6107,13 +6107,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W24" t="n">
-        <v>945.2284211280532</v>
+        <v>945.228421128053</v>
       </c>
       <c r="X24" t="n">
-        <v>790.3609853669332</v>
+        <v>790.3609853669329</v>
       </c>
       <c r="Y24" t="n">
-        <v>663.8752061461539</v>
+        <v>663.8752061461537</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>611.2730910610244</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="C25" t="n">
-        <v>611.2730910610244</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="D25" t="n">
-        <v>445.3950982625471</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="E25" t="n">
-        <v>445.3950982625471</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F25" t="n">
-        <v>268.6880442243033</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G25" t="n">
-        <v>103.9468638368217</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H25" t="n">
         <v>47.20655154895473</v>
@@ -6147,7 +6147,7 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J25" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K25" t="n">
         <v>202.912315818696</v>
@@ -6159,40 +6159,40 @@
         <v>457.3875097755234</v>
       </c>
       <c r="N25" t="n">
-        <v>584.886421579413</v>
+        <v>584.8864215794129</v>
       </c>
       <c r="O25" t="n">
-        <v>702.6523029271748</v>
+        <v>702.6523029271747</v>
       </c>
       <c r="P25" t="n">
-        <v>803.4213591048583</v>
+        <v>803.4213591048582</v>
       </c>
       <c r="Q25" t="n">
-        <v>873.1886303355139</v>
+        <v>873.1886303355138</v>
       </c>
       <c r="R25" t="n">
-        <v>889.6597230122813</v>
+        <v>889.6597230122812</v>
       </c>
       <c r="S25" t="n">
-        <v>889.6597230122813</v>
+        <v>889.6597230122812</v>
       </c>
       <c r="T25" t="n">
-        <v>889.6597230122813</v>
+        <v>889.6597230122812</v>
       </c>
       <c r="U25" t="n">
-        <v>611.2730910610244</v>
+        <v>889.6597230122812</v>
       </c>
       <c r="V25" t="n">
-        <v>611.2730910610244</v>
+        <v>602.7042148827118</v>
       </c>
       <c r="W25" t="n">
-        <v>611.2730910610244</v>
+        <v>602.7042148827118</v>
       </c>
       <c r="X25" t="n">
-        <v>611.2730910610244</v>
+        <v>357.3124602161242</v>
       </c>
       <c r="Y25" t="n">
-        <v>611.2730910610244</v>
+        <v>344.2917925571204</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>488.3424474085132</v>
+        <v>1318.626460527759</v>
       </c>
       <c r="C26" t="n">
-        <v>475.073981139747</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="D26" t="n">
-        <v>475.073981139747</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="E26" t="n">
-        <v>475.073981139747</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F26" t="n">
-        <v>47.20655154895473</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G26" t="n">
         <v>47.20655154895473</v>
@@ -6226,22 +6226,22 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M26" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N26" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O26" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P26" t="n">
         <v>2043.069798152528</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T26" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U26" t="n">
-        <v>2101.256885969251</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V26" t="n">
-        <v>1738.639935903077</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W26" t="n">
-        <v>1333.78448131411</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X26" t="n">
-        <v>914.642017893421</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="Y26" t="n">
-        <v>914.642017893421</v>
+        <v>1440.733140952813</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>542.5713050663908</v>
+        <v>542.5713050663906</v>
       </c>
       <c r="C27" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030328</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495861</v>
       </c>
       <c r="E27" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765398</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927014</v>
       </c>
       <c r="G27" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235823</v>
       </c>
       <c r="H27" t="n">
         <v>47.20655154895473</v>
@@ -6308,22 +6308,22 @@
         <v>175.316627066898</v>
       </c>
       <c r="K27" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L27" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M27" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N27" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O27" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P27" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q27" t="n">
         <v>1614.947661807679</v>
@@ -6344,13 +6344,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W27" t="n">
-        <v>945.2284211280532</v>
+        <v>945.228421128053</v>
       </c>
       <c r="X27" t="n">
-        <v>790.3609853669332</v>
+        <v>790.3609853669329</v>
       </c>
       <c r="Y27" t="n">
-        <v>663.8752061461539</v>
+        <v>663.8752061461537</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1517.87440598441</v>
+        <v>859.4385509106165</v>
       </c>
       <c r="C28" t="n">
-        <v>1517.87440598441</v>
+        <v>686.8768393938415</v>
       </c>
       <c r="D28" t="n">
-        <v>1517.87440598441</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="E28" t="n">
-        <v>1517.87440598441</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F28" t="n">
-        <v>1517.87440598441</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G28" t="n">
-        <v>1517.87440598441</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H28" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I28" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J28" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K28" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M28" t="n">
-        <v>1928.055364210978</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N28" t="n">
-        <v>2055.554276014868</v>
+        <v>584.8864215794129</v>
       </c>
       <c r="O28" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271747</v>
       </c>
       <c r="P28" t="n">
-        <v>2274.089213540313</v>
+        <v>803.4213591048582</v>
       </c>
       <c r="Q28" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355138</v>
       </c>
       <c r="R28" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122812</v>
       </c>
       <c r="S28" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122812</v>
       </c>
       <c r="T28" t="n">
-        <v>2118.080353351143</v>
+        <v>889.6597230122812</v>
       </c>
       <c r="U28" t="n">
-        <v>1839.693721399886</v>
+        <v>889.6597230122812</v>
       </c>
       <c r="V28" t="n">
-        <v>1552.738213270316</v>
+        <v>889.6597230122812</v>
       </c>
       <c r="W28" t="n">
-        <v>1517.87440598441</v>
+        <v>889.6597230122812</v>
       </c>
       <c r="X28" t="n">
-        <v>1517.87440598441</v>
+        <v>889.6597230122812</v>
       </c>
       <c r="Y28" t="n">
-        <v>1517.87440598441</v>
+        <v>859.4385509106165</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1941.185114027048</v>
+        <v>874.1756481082181</v>
       </c>
       <c r="C29" t="n">
-        <v>1503.042641210471</v>
+        <v>436.0331752916414</v>
       </c>
       <c r="D29" t="n">
-        <v>1067.132856384916</v>
+        <v>436.0331752916414</v>
       </c>
       <c r="E29" t="n">
-        <v>633.3581115432107</v>
+        <v>436.0331752916414</v>
       </c>
       <c r="F29" t="n">
-        <v>205.4906819524185</v>
+        <v>436.0331752916414</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L29" t="n">
         <v>805.4408022867025</v>
@@ -6481,7 +6481,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q29" t="n">
         <v>2243.650993163596</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U29" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V29" t="n">
-        <v>2360.327577447737</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W29" t="n">
-        <v>2360.327577447737</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="X29" t="n">
-        <v>1941.185114027048</v>
+        <v>874.1756481082181</v>
       </c>
       <c r="Y29" t="n">
-        <v>1941.185114027048</v>
+        <v>874.1756481082181</v>
       </c>
     </row>
     <row r="30">
@@ -6533,13 +6533,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
-        <v>79.14920158235846</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I30" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J30" t="n">
         <v>175.316627066898</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2215.901038951972</v>
+        <v>561.2164974914551</v>
       </c>
       <c r="C31" t="n">
-        <v>2081.346869483384</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="D31" t="n">
-        <v>1915.468876684906</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="E31" t="n">
-        <v>1745.710872935644</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F31" t="n">
-        <v>1745.710872935644</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G31" t="n">
-        <v>1580.969692548162</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H31" t="n">
-        <v>1580.969692548162</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I31" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J31" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K31" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L31" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M31" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N31" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O31" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P31" t="n">
-        <v>2274.089213540314</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q31" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R31" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S31" t="n">
-        <v>2215.901038951972</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T31" t="n">
-        <v>2215.901038951972</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="U31" t="n">
-        <v>2215.901038951972</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="V31" t="n">
-        <v>2215.901038951972</v>
+        <v>561.2164974914551</v>
       </c>
       <c r="W31" t="n">
-        <v>2215.901038951972</v>
+        <v>561.2164974914551</v>
       </c>
       <c r="X31" t="n">
-        <v>2215.901038951972</v>
+        <v>561.2164974914551</v>
       </c>
       <c r="Y31" t="n">
-        <v>2215.901038951972</v>
+        <v>561.2164974914551</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1349.126238781879</v>
+        <v>1178.570277437541</v>
       </c>
       <c r="C32" t="n">
-        <v>910.9837659653025</v>
+        <v>1178.570277437541</v>
       </c>
       <c r="D32" t="n">
-        <v>475.073981139747</v>
+        <v>1178.570277437541</v>
       </c>
       <c r="E32" t="n">
-        <v>475.073981139747</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F32" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867029</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M32" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N32" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O32" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P32" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q32" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R32" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T32" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U32" t="n">
-        <v>2176.554825902915</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V32" t="n">
-        <v>2176.554825902915</v>
+        <v>2005.998864558577</v>
       </c>
       <c r="W32" t="n">
-        <v>2176.554825902915</v>
+        <v>2005.998864558577</v>
       </c>
       <c r="X32" t="n">
-        <v>1757.412362482226</v>
+        <v>1586.856401137888</v>
       </c>
       <c r="Y32" t="n">
-        <v>1349.126238781879</v>
+        <v>1178.570277437541</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D33" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E33" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G33" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J33" t="n">
         <v>175.3166270668981</v>
       </c>
       <c r="K33" t="n">
-        <v>335.7952991210684</v>
+        <v>335.7952991210685</v>
       </c>
       <c r="L33" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M33" t="n">
         <v>803.387703298788</v>
@@ -6818,13 +6818,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W33" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X33" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y33" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="34">
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.20655154895474</v>
+        <v>720.1454400009515</v>
       </c>
       <c r="C34" t="n">
-        <v>47.20655154895474</v>
+        <v>547.5837284841764</v>
       </c>
       <c r="D34" t="n">
-        <v>47.20655154895474</v>
+        <v>381.705735685699</v>
       </c>
       <c r="E34" t="n">
-        <v>47.20655154895474</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F34" t="n">
-        <v>47.20655154895474</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J34" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K34" t="n">
         <v>202.912315818696</v>
@@ -6888,22 +6888,22 @@
         <v>889.6597230122813</v>
       </c>
       <c r="T34" t="n">
-        <v>647.4124989156879</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U34" t="n">
-        <v>369.0258669644309</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="V34" t="n">
-        <v>82.07035883486139</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="W34" t="n">
-        <v>82.07035883486139</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="X34" t="n">
-        <v>47.20655154895474</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.20655154895474</v>
+        <v>889.6597230122813</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>716.4307943255671</v>
+        <v>875.8059144216433</v>
       </c>
       <c r="C35" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D35" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E35" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F35" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G35" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001348</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867019</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M35" t="n">
         <v>1131.588690455489</v>
@@ -6970,19 +6970,19 @@
         <v>2108.089956131646</v>
       </c>
       <c r="U35" t="n">
-        <v>1849.01926465316</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V35" t="n">
-        <v>1486.402314586986</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W35" t="n">
-        <v>1081.54685999802</v>
+        <v>1703.234501542679</v>
       </c>
       <c r="X35" t="n">
-        <v>716.4307943255671</v>
+        <v>1284.09203812199</v>
       </c>
       <c r="Y35" t="n">
-        <v>716.4307943255671</v>
+        <v>875.8059144216433</v>
       </c>
     </row>
     <row r="36">
@@ -7022,10 +7022,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L36" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M36" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N36" t="n">
         <v>1061.861364220108</v>
@@ -7125,22 +7125,22 @@
         <v>889.6597230122813</v>
       </c>
       <c r="T37" t="n">
-        <v>753.4003490834032</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="U37" t="n">
-        <v>753.4003490834032</v>
+        <v>369.0258669644309</v>
       </c>
       <c r="V37" t="n">
-        <v>466.4448409538336</v>
+        <v>82.07035883486139</v>
       </c>
       <c r="W37" t="n">
-        <v>466.4448409538336</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="X37" t="n">
-        <v>466.4448409538336</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="Y37" t="n">
-        <v>239.0251702679419</v>
+        <v>47.20655154895473</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1652.504392483701</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="C38" t="n">
-        <v>1344.758510807007</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="D38" t="n">
-        <v>908.8487259814518</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="E38" t="n">
-        <v>475.073981139747</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F38" t="n">
-        <v>47.20655154895473</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G38" t="n">
         <v>47.20655154895473</v>
@@ -7174,19 +7174,19 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M38" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O38" t="n">
         <v>1775.969506973259</v>
@@ -7210,16 +7210,16 @@
         <v>2060.790516184048</v>
       </c>
       <c r="V38" t="n">
-        <v>2060.790516184048</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W38" t="n">
-        <v>2060.790516184048</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="X38" t="n">
-        <v>2060.790516184048</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="Y38" t="n">
-        <v>1652.504392483701</v>
+        <v>1293.318111528907</v>
       </c>
     </row>
     <row r="39">
@@ -7232,7 +7232,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D39" t="n">
         <v>341.0245550495863</v>
@@ -7244,7 +7244,7 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G39" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H39" t="n">
         <v>47.20655154895473</v>
@@ -7259,7 +7259,7 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M39" t="n">
         <v>803.387703298788</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1690.436117501185</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C40" t="n">
-        <v>1517.87440598441</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D40" t="n">
-        <v>1517.87440598441</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E40" t="n">
-        <v>1517.87440598441</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F40" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G40" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H40" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I40" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J40" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M40" t="n">
-        <v>1928.055364210978</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N40" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O40" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540313</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q40" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447737</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T40" t="n">
-        <v>2360.327577447737</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U40" t="n">
-        <v>2360.327577447737</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V40" t="n">
-        <v>2073.372069318167</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="W40" t="n">
-        <v>1801.345664904459</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="X40" t="n">
-        <v>1801.345664904459</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="Y40" t="n">
-        <v>1690.436117501185</v>
+        <v>745.2331845165158</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>716.4307943255671</v>
+        <v>485.3490243655314</v>
       </c>
       <c r="C41" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="D41" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="E41" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F41" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G41" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M41" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P41" t="n">
         <v>2043.069798152528</v>
@@ -7435,28 +7435,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S41" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T41" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U41" t="n">
-        <v>1849.01926465316</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V41" t="n">
-        <v>1486.402314586987</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="W41" t="n">
-        <v>1081.54685999802</v>
+        <v>1739.077181971475</v>
       </c>
       <c r="X41" t="n">
-        <v>716.4307943255671</v>
+        <v>1319.934718550786</v>
       </c>
       <c r="Y41" t="n">
-        <v>716.4307943255671</v>
+        <v>911.6485948504392</v>
       </c>
     </row>
     <row r="42">
@@ -7472,40 +7472,40 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J42" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K42" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210684</v>
       </c>
       <c r="L42" t="n">
         <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N42" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P42" t="n">
         <v>1488.088567599445</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>103.2581397831116</v>
+        <v>88.43058637240995</v>
       </c>
       <c r="C43" t="n">
-        <v>103.2581397831116</v>
+        <v>88.43058637240995</v>
       </c>
       <c r="D43" t="n">
-        <v>103.2581397831116</v>
+        <v>88.43058637240995</v>
       </c>
       <c r="E43" t="n">
-        <v>103.2581397831116</v>
+        <v>88.43058637240995</v>
       </c>
       <c r="F43" t="n">
-        <v>47.20655154895474</v>
+        <v>88.43058637240995</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J43" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K43" t="n">
         <v>202.912315818696</v>
@@ -7599,22 +7599,22 @@
         <v>889.6597230122813</v>
       </c>
       <c r="T43" t="n">
-        <v>889.6597230122813</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="U43" t="n">
-        <v>889.6597230122813</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="V43" t="n">
-        <v>602.7042148827118</v>
+        <v>360.4569907861184</v>
       </c>
       <c r="W43" t="n">
-        <v>330.6778104690033</v>
+        <v>88.43058637240995</v>
       </c>
       <c r="X43" t="n">
-        <v>330.6778104690033</v>
+        <v>88.43058637240995</v>
       </c>
       <c r="Y43" t="n">
-        <v>103.2581397831116</v>
+        <v>88.43058637240995</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>921.2588091910869</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="C44" t="n">
-        <v>483.1163363745102</v>
+        <v>1048.25984177041</v>
       </c>
       <c r="D44" t="n">
-        <v>47.20655154895474</v>
+        <v>612.3500569448547</v>
       </c>
       <c r="E44" t="n">
-        <v>47.20655154895474</v>
+        <v>612.3500569448547</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895474</v>
+        <v>184.4826273540625</v>
       </c>
       <c r="G44" t="n">
         <v>47.20655154895474</v>
@@ -7645,16 +7645,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M44" t="n">
         <v>1131.58869045549</v>
@@ -7669,7 +7669,7 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q44" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R44" t="n">
         <v>2360.327577447737</v>
@@ -7687,13 +7687,13 @@
         <v>1486.402314586987</v>
       </c>
       <c r="W44" t="n">
-        <v>1081.54685999802</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="X44" t="n">
-        <v>921.2588091910869</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="Y44" t="n">
-        <v>921.2588091910869</v>
+        <v>1486.402314586987</v>
       </c>
     </row>
     <row r="45">
@@ -7706,7 +7706,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
         <v>341.0245550495863</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>745.2331845165158</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="C46" t="n">
-        <v>679.9277891048604</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="D46" t="n">
-        <v>514.0497963063831</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="E46" t="n">
-        <v>344.2917925571204</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F46" t="n">
-        <v>344.2917925571204</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G46" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H46" t="n">
         <v>47.20655154895474</v>
@@ -7833,25 +7833,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S46" t="n">
-        <v>745.2331845165158</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T46" t="n">
-        <v>745.2331845165158</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="U46" t="n">
-        <v>745.2331845165158</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="V46" t="n">
-        <v>745.2331845165158</v>
+        <v>360.4569907861184</v>
       </c>
       <c r="W46" t="n">
-        <v>745.2331845165158</v>
+        <v>360.4569907861184</v>
       </c>
       <c r="X46" t="n">
-        <v>745.2331845165158</v>
+        <v>115.0652361195309</v>
       </c>
       <c r="Y46" t="n">
-        <v>745.2331845165158</v>
+        <v>115.0652361195309</v>
       </c>
     </row>
   </sheetData>
@@ -23263,19 +23263,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.060443726518</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>195.8330997462467</v>
       </c>
     </row>
     <row r="12">
@@ -23354,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>9.201528428093297e-13</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>93.3219108035513</v>
       </c>
       <c r="Y13" t="n">
-        <v>187.446764768106</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -23503,13 +23503,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>141.9879189067922</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>267.0243359415286</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>362.9863899696983</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>129.7040436574449</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>88.29755339418213</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>217.1939706653099</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -23746,10 +23746,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>70.08578196157237</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>187.446764768106</v>
+        <v>195.2265135983851</v>
       </c>
     </row>
     <row r="20">
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>60.69739459789946</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -23983,10 +23983,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>165.3781207952761</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
@@ -24028,7 +24028,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.26124425162971</v>
+        <v>61.43022289407045</v>
       </c>
     </row>
     <row r="23">
@@ -24211,19 +24211,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>174.2084005785164</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>103.5939540363294</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.6535390155789</v>
@@ -24265,16 +24265,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24369,22 +24369,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>74.84771084948891</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>212.255012996619</v>
       </c>
     </row>
     <row r="26">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>301.150961159255</v>
       </c>
       <c r="C26" t="n">
-        <v>420.6252664823324</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>267.0243359415286</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,25 +24603,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>234.7909711565238</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>195.2265135983847</v>
       </c>
     </row>
     <row r="29">
@@ -24685,16 +24685,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>238.8063753078885</v>
+        <v>10.5693069020578</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>37.62746662770516</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>198.7519116382834</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -24919,13 +24919,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>74.54496053432754</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>257.9205999081742</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>22.08129235058064</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>131.0206200144773</v>
@@ -25128,19 +25128,19 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>208.4226679068741</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -25156,7 +25156,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>8.955343251766919</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>53.48613377075435</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -25365,22 +25365,22 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>104.927971666038</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>234.7909711565238</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25393,19 +25393,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>129.0926252284842</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>14.88297271533662</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -25450,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>176.9097803756431</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.0937685836068</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
@@ -25608,16 +25608,16 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>115.3450220497918</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -25642,10 +25642,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>184.8214951744413</v>
       </c>
       <c r="X41" t="n">
-        <v>53.4861337707539</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25797,10 +25797,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>119.4489111460461</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>122.2819741083861</v>
       </c>
       <c r="H43" t="n">
         <v>131.0206200144773</v>
@@ -25839,7 +25839,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>275.6027656317444</v>
@@ -25854,7 +25854,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -25876,10 +25876,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>259.6043493602609</v>
       </c>
       <c r="H44" t="n">
         <v>267.0243359415286</v>
@@ -25927,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>256.2658684876185</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>122.7203348069269</v>
       </c>
       <c r="C46" t="n">
-        <v>106.1837529440684</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
         <v>62.46433369811443</v>
@@ -26073,22 +26073,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>363547.6966943227</v>
+        <v>363547.6966943225</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>363547.6966943226</v>
+        <v>363547.6966943225</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>363547.6966943227</v>
+        <v>363547.6966943225</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>363547.6966943227</v>
+        <v>363547.6966943225</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>363547.6966943227</v>
+        <v>363547.6966943226</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>363547.6966943227</v>
+        <v>363547.6966943226</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>363547.6966943227</v>
+        <v>363547.6966943226</v>
       </c>
     </row>
   </sheetData>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>551135.2009906757</v>
+        <v>551135.2009906756</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.2905444231687</v>
       </c>
       <c r="F4" t="n">
-        <v>414.290544423169</v>
+        <v>414.2905444231688</v>
       </c>
       <c r="G4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.2905444231687</v>
       </c>
       <c r="H4" t="n">
         <v>414.2905444231689</v>
@@ -26444,22 +26444,22 @@
         <v>414.2905444231689</v>
       </c>
       <c r="K4" t="n">
-        <v>414.290544423169</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="L4" t="n">
-        <v>414.290544423169</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="M4" t="n">
         <v>414.2905444231689</v>
       </c>
       <c r="N4" t="n">
+        <v>414.290544423169</v>
+      </c>
+      <c r="O4" t="n">
         <v>414.2905444231689</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>414.290544423169</v>
-      </c>
-      <c r="P4" t="n">
-        <v>414.2905444231689</v>
       </c>
     </row>
     <row r="5">
@@ -26478,13 +26478,13 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="H5" t="n">
         <v>46051.08120963781</v>
@@ -26496,10 +26496,10 @@
         <v>46051.08120963781</v>
       </c>
       <c r="K5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="L5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="M5" t="n">
         <v>46051.08120963781</v>
@@ -26508,7 +26508,7 @@
         <v>46051.08120963781</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="P5" t="n">
         <v>46051.08120963782</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>-471757.139273625</v>
+        <v>-472398.3773874003</v>
       </c>
       <c r="F6" t="n">
-        <v>79378.06171705076</v>
+        <v>78736.8236032753</v>
       </c>
       <c r="G6" t="n">
-        <v>79378.06171705075</v>
+        <v>78736.82360327528</v>
       </c>
       <c r="H6" t="n">
-        <v>79378.06171705073</v>
+        <v>78736.82360327532</v>
       </c>
       <c r="I6" t="n">
-        <v>79378.06171705073</v>
+        <v>78736.82360327533</v>
       </c>
       <c r="J6" t="n">
-        <v>79378.06171705072</v>
+        <v>78736.82360327536</v>
       </c>
       <c r="K6" t="n">
-        <v>79378.06171705073</v>
+        <v>78736.82360327533</v>
       </c>
       <c r="L6" t="n">
-        <v>79378.06171705073</v>
+        <v>78736.82360327535</v>
       </c>
       <c r="M6" t="n">
-        <v>-67672.70668552069</v>
+        <v>-68313.94479929611</v>
       </c>
       <c r="N6" t="n">
-        <v>79378.06171705075</v>
+        <v>78736.82360327533</v>
       </c>
       <c r="O6" t="n">
-        <v>79378.06171705073</v>
+        <v>78736.82360327532</v>
       </c>
       <c r="P6" t="n">
-        <v>79378.06171705073</v>
+        <v>78736.82360327535</v>
       </c>
     </row>
   </sheetData>
@@ -26746,37 +26746,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="P3" t="n">
         <v>466.7019280932212</v>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="I4" t="n">
         <v>590.0818943619341</v>
@@ -26816,10 +26816,10 @@
         <v>590.0818943619341</v>
       </c>
       <c r="K4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="L4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="M4" t="n">
         <v>590.0818943619341</v>
@@ -26828,7 +26828,7 @@
         <v>590.0818943619341</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="P4" t="n">
         <v>590.0818943619342</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H11" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S11" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,46 +31834,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I12" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I13" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R13" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H14" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,46 +32071,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I16" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M16" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R16" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H17" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M19" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R19" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H20" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,46 +32545,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -32642,28 +32642,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R22" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H23" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,46 +32782,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32879,28 +32879,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R25" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H26" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R26" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,46 +33019,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33116,28 +33116,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O28" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R28" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,28 +33180,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699081</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -33213,7 +33213,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
         <v>0.1500950924520911</v>
@@ -33256,13 +33256,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -33274,25 +33274,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
         <v>0.06604272567356906</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
@@ -33344,7 +33344,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -33368,10 +33368,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
         <v>0.04590510768130049</v>
@@ -33417,28 +33417,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -33450,7 +33450,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
         <v>0.1500950924520911</v>
@@ -33493,13 +33493,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -33511,25 +33511,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
         <v>0.06604272567356906</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
@@ -33581,7 +33581,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -33605,10 +33605,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
         <v>0.04590510768130049</v>
@@ -33654,28 +33654,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -33687,7 +33687,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33730,13 +33730,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -33748,25 +33748,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
         <v>0.06604272567356906</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
@@ -33818,7 +33818,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33842,10 +33842,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
         <v>0.04590510768130049</v>
@@ -33891,28 +33891,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -33924,7 +33924,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U38" t="n">
         <v>0.1500950924520911</v>
@@ -33967,13 +33967,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -33985,25 +33985,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U39" t="n">
         <v>0.06604272567356906</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
@@ -34055,7 +34055,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -34079,10 +34079,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U40" t="n">
         <v>0.04590510768130049</v>
@@ -34128,28 +34128,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -34161,7 +34161,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U41" t="n">
         <v>0.1500950924520911</v>
@@ -34204,13 +34204,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I42" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
@@ -34222,25 +34222,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U42" t="n">
         <v>0.06604272567356906</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
@@ -34292,7 +34292,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -34316,10 +34316,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U43" t="n">
         <v>0.04590510768130049</v>
@@ -35406,16 +35406,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
         <v>329.4423112816032</v>
@@ -35424,10 +35424,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P12" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R12" t="n">
         <v>62.32672164233622</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K13" t="n">
         <v>97.77787936116988</v>
@@ -35582,16 +35582,16 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,19 +35643,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125713</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062835</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
@@ -35667,7 +35667,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
         <v>117.855135640546</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R15" t="n">
         <v>62.32672164233622</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M16" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>118.9554357048099</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q16" t="n">
         <v>70.47199114207638</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125713</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062836</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548407</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R18" t="n">
         <v>62.32672164233622</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K19" t="n">
         <v>97.77787936116988</v>
@@ -36056,16 +36056,16 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,13 +36117,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
         <v>296.0766412766674</v>
@@ -36135,10 +36135,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M22" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q22" t="n">
         <v>70.47199114207638</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,19 +36354,19 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J23" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
@@ -36436,13 +36436,13 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108055</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -36527,7 +36527,7 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
@@ -36539,7 +36539,7 @@
         <v>70.47199114207638</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,16 +36591,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
         <v>329.4423112816032</v>
@@ -36612,7 +36612,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -36673,13 +36673,13 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M27" t="n">
         <v>254.3525508108055</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
         <v>131.9236286247772</v>
@@ -36767,16 +36767,16 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O28" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P28" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R28" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785941</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
@@ -36837,7 +36837,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
         <v>329.4423112816032</v>
@@ -36846,10 +36846,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O31" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J32" t="n">
-        <v>159.2391669125714</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O32" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
         <v>117.855135640546</v>
@@ -37144,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916794</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562348</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L33" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646688</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
         <v>261.0845059811313</v>
@@ -37165,7 +37165,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
@@ -37302,19 +37302,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J35" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37396,7 +37396,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742734</v>
@@ -37539,16 +37539,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
         <v>329.4423112816032</v>
@@ -37557,7 +37557,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
         <v>269.7982739184536</v>
@@ -37630,7 +37630,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N39" t="n">
         <v>261.0845059811313</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O40" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37776,13 +37776,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J41" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L41" t="n">
         <v>296.0766412766674</v>
@@ -37791,7 +37791,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O41" t="n">
         <v>316.1166813548411</v>
@@ -37800,7 +37800,7 @@
         <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
         <v>117.855135640546</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L42" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
@@ -38016,7 +38016,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
@@ -38025,7 +38025,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
@@ -38034,13 +38034,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
